--- a/disagreement_matrix/engineering_version/rsj_matrix_records/Hepatitis_withoutdupl_16_self_sum.xlsx
+++ b/disagreement_matrix/engineering_version/rsj_matrix_records/Hepatitis_withoutdupl_16_self_sum.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -394,2328 +394,2085 @@
       <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0005208143821708614</v>
+        <v>0.0005780681875765949</v>
       </c>
       <c r="C2">
-        <v>0.000765169992764564</v>
+        <v>0.0009110287178263736</v>
       </c>
       <c r="D2">
-        <v>0.0007680805235577449</v>
+        <v>0.0007854032296945732</v>
       </c>
       <c r="E2">
-        <v>0.001278402684712895</v>
+        <v>0.001283958699517003</v>
       </c>
       <c r="F2">
-        <v>0.0003574804537733922</v>
+        <v>0.0003692177709708526</v>
       </c>
       <c r="G2">
-        <v>0.0005202955413671726</v>
+        <v>0.0006450328672509423</v>
       </c>
       <c r="H2">
-        <v>0.0004843068398489248</v>
-      </c>
-      <c r="I2">
-        <v>0.0005218548358867383</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.0006004157035486608</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.001759954286632699</v>
+        <v>0.00207718735560608</v>
       </c>
       <c r="C3">
-        <v>0.001222868840417362</v>
+        <v>0.001487477110279806</v>
       </c>
       <c r="D3">
-        <v>0.002125392501040109</v>
+        <v>0.002170815808456964</v>
       </c>
       <c r="E3">
-        <v>0.001865667102069675</v>
+        <v>0.001897246644185378</v>
       </c>
       <c r="F3">
-        <v>0.001386354704183338</v>
+        <v>0.00142942668677856</v>
       </c>
       <c r="G3">
-        <v>0.001241744767135525</v>
+        <v>0.001518197843462058</v>
       </c>
       <c r="H3">
-        <v>0.001077935964532412</v>
-      </c>
-      <c r="I3">
-        <v>0.001095558277931255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.001301910263424608</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.003879300573873587</v>
+        <v>0.004391719611491135</v>
       </c>
       <c r="C4">
-        <v>0.00288428097496327</v>
+        <v>0.003361382265825551</v>
       </c>
       <c r="D4">
-        <v>0.005445934677164839</v>
+        <v>0.005822461770659318</v>
       </c>
       <c r="E4">
-        <v>0.004690781949243926</v>
+        <v>0.005035909925904261</v>
       </c>
       <c r="F4">
-        <v>0.005064258497563423</v>
+        <v>0.005592695888624356</v>
       </c>
       <c r="G4">
-        <v>0.003714825545006453</v>
+        <v>0.004258878711438032</v>
       </c>
       <c r="H4">
-        <v>0.00361556425714922</v>
-      </c>
-      <c r="I4">
-        <v>0.00301741785427929</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.004114648789640078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0004464533756131323</v>
+        <v>0.0004675495529869357</v>
       </c>
       <c r="C5">
-        <v>0.0004292030444346904</v>
+        <v>0.0004521503770793718</v>
       </c>
       <c r="D5">
-        <v>0.0001953200215141159</v>
+        <v>0.0002174648393744892</v>
       </c>
       <c r="E5">
-        <v>0.0001621887075820256</v>
+        <v>0.0001861031661300608</v>
       </c>
       <c r="F5">
-        <v>0.0001783083512701381</v>
+        <v>0.0002011896444308434</v>
       </c>
       <c r="G5">
-        <v>0.0004814397124972942</v>
+        <v>0.0005538827961155947</v>
       </c>
       <c r="H5">
-        <v>0.0002106550886486166</v>
-      </c>
-      <c r="I5">
-        <v>0.000223793254551226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.0002521256721540518</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.00145440742535587</v>
+        <v>0.001787977102874594</v>
       </c>
       <c r="C6">
-        <v>0.001492825942024367</v>
+        <v>0.001768664077483124</v>
       </c>
       <c r="D6">
-        <v>0.002338851419580345</v>
+        <v>0.00245468635561501</v>
       </c>
       <c r="E6">
-        <v>0.001926278515270858</v>
+        <v>0.002033361202996826</v>
       </c>
       <c r="F6">
-        <v>0.001950752038035185</v>
+        <v>0.00203404742377027</v>
       </c>
       <c r="G6">
-        <v>0.002267673721366245</v>
+        <v>0.002535289940787886</v>
       </c>
       <c r="H6">
-        <v>0.001696347291388693</v>
-      </c>
-      <c r="I6">
-        <v>0.001365877846412432</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.001967056014201728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.002364118109961231</v>
+        <v>0.002720325852216794</v>
       </c>
       <c r="C7">
-        <v>0.00107468569229909</v>
+        <v>0.001332340690972234</v>
       </c>
       <c r="D7">
-        <v>0.002061400790228567</v>
+        <v>0.0021458724490263</v>
       </c>
       <c r="E7">
-        <v>0.00168946791896932</v>
+        <v>0.001752430842782454</v>
       </c>
       <c r="F7">
-        <v>0.001717089787449818</v>
+        <v>0.001744363538395169</v>
       </c>
       <c r="G7">
-        <v>0.001205775447211281</v>
+        <v>0.001494859837478355</v>
       </c>
       <c r="H7">
-        <v>0.001092822559774758</v>
-      </c>
-      <c r="I7">
-        <v>0.001095050477578699</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.001344117438703067</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.002685224556299535</v>
+        <v>0.003120922381822621</v>
       </c>
       <c r="C8">
-        <v>0.002117522312799991</v>
+        <v>0.002594312472521514</v>
       </c>
       <c r="D8">
-        <v>0.003696655416161018</v>
+        <v>0.003848424204284052</v>
       </c>
       <c r="E8">
-        <v>0.003035372090093137</v>
+        <v>0.003192778523005332</v>
       </c>
       <c r="F8">
-        <v>0.004091237446127298</v>
+        <v>0.004268576993154087</v>
       </c>
       <c r="G8">
-        <v>0.002497178835272101</v>
+        <v>0.002949872308327992</v>
       </c>
       <c r="H8">
-        <v>0.002076134069837763</v>
-      </c>
-      <c r="I8">
-        <v>0.002038544099664624</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.002540033189667183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0007713865151484962</v>
+        <v>0.0009144426736126188</v>
       </c>
       <c r="C9">
-        <v>0.0008595216958758249</v>
+        <v>0.001065590104086336</v>
       </c>
       <c r="D9">
-        <v>0.001621090200735702</v>
+        <v>0.001679320776017882</v>
       </c>
       <c r="E9">
-        <v>0.00190731303376217</v>
+        <v>0.001973077139120059</v>
       </c>
       <c r="F9">
-        <v>0.0005317625408573002</v>
+        <v>0.0006090713795223188</v>
       </c>
       <c r="G9">
-        <v>0.0007915351734310088</v>
+        <v>0.0009431588588710862</v>
       </c>
       <c r="H9">
-        <v>0.0009974183119861586</v>
-      </c>
-      <c r="I9">
-        <v>0.0007294700692490197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.001184380685127922</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.001163680924524965</v>
+        <v>0.001293818946875424</v>
       </c>
       <c r="C10">
-        <v>0.0006490005685162189</v>
+        <v>0.0007647496999983504</v>
       </c>
       <c r="D10">
-        <v>0.0009181909479012442</v>
+        <v>0.0009589730573006615</v>
       </c>
       <c r="E10">
-        <v>0.0003649583049901116</v>
+        <v>0.0004524527903903979</v>
       </c>
       <c r="F10">
-        <v>0.001046431431881894</v>
+        <v>0.001094734463124382</v>
       </c>
       <c r="G10">
-        <v>0.0008604137983975992</v>
+        <v>0.0009739186682963631</v>
       </c>
       <c r="H10">
-        <v>0.0005471623873702183</v>
-      </c>
-      <c r="I10">
-        <v>0.0005351507536580959</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.0006783411672370943</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0006707467976365193</v>
+        <v>0.0008240333840436179</v>
       </c>
       <c r="C11">
-        <v>0.0008661622121453082</v>
+        <v>0.001036510536901549</v>
       </c>
       <c r="D11">
-        <v>0.000967305134092184</v>
+        <v>0.001020715463200487</v>
       </c>
       <c r="E11">
-        <v>0.001029567491051173</v>
+        <v>0.001055812215335107</v>
       </c>
       <c r="F11">
-        <v>0.000709967607589123</v>
+        <v>0.0007601979084923826</v>
       </c>
       <c r="G11">
-        <v>0.001455680350837879</v>
+        <v>0.001656242895259969</v>
       </c>
       <c r="H11">
-        <v>0.0007442078964710051</v>
-      </c>
-      <c r="I11">
-        <v>0.0006300357764694221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.0008539339456395481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.000751520495902475</v>
+        <v>0.0009080036679252878</v>
       </c>
       <c r="C12">
-        <v>0.001093376859013592</v>
+        <v>0.001289863935236437</v>
       </c>
       <c r="D12">
-        <v>0.001063034680156419</v>
+        <v>0.001085654055235916</v>
       </c>
       <c r="E12">
-        <v>0.00102450048306533</v>
+        <v>0.001058207527986338</v>
       </c>
       <c r="F12">
-        <v>0.00182751109374512</v>
+        <v>0.001932000896233816</v>
       </c>
       <c r="G12">
-        <v>0.0008274550801043941</v>
+        <v>0.0009521741983778745</v>
       </c>
       <c r="H12">
-        <v>0.0006543781911617139</v>
-      </c>
-      <c r="I12">
-        <v>0.000789172788661787</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.0007737483060132742</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.0004335052124250078</v>
+        <v>0.0005374341445733818</v>
       </c>
       <c r="C13">
-        <v>0.0005372612154840491</v>
+        <v>0.0006290551906159002</v>
       </c>
       <c r="D13">
-        <v>0.0003943111066619457</v>
+        <v>0.0004379925725759445</v>
       </c>
       <c r="E13">
-        <v>0.0004119167833769956</v>
+        <v>0.0004476196414503217</v>
       </c>
       <c r="F13">
-        <v>0.001235569039922516</v>
+        <v>0.001278386516720649</v>
       </c>
       <c r="G13">
-        <v>0.000931761419568281</v>
+        <v>0.001006416453830524</v>
       </c>
       <c r="H13">
-        <v>0.0004446573189496671</v>
-      </c>
-      <c r="I13">
-        <v>0.0004835703096845885</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.0005048543010573198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.0008286077069307034</v>
+        <v>0.0008374778958218781</v>
       </c>
       <c r="C14">
-        <v>0.000493692640274469</v>
+        <v>0.000564521464281805</v>
       </c>
       <c r="D14">
-        <v>0.0002241944398335031</v>
+        <v>0.000269109486609829</v>
       </c>
       <c r="E14">
-        <v>0.0005650736169859094</v>
+        <v>0.0005531559652371223</v>
       </c>
       <c r="F14">
-        <v>0.0003203647844507255</v>
+        <v>0.0003614632464687051</v>
       </c>
       <c r="G14">
-        <v>0.0003882469082612338</v>
+        <v>0.0004500695305857807</v>
       </c>
       <c r="H14">
-        <v>0.000265556399438763</v>
-      </c>
-      <c r="I14">
-        <v>0.0003714816092674931</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.0003292188056895464</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.0009189315148605557</v>
+        <v>0.001083442540488846</v>
       </c>
       <c r="C15">
-        <v>0.0009755049680251816</v>
+        <v>0.001209380916810999</v>
       </c>
       <c r="D15">
-        <v>0.001272820043353243</v>
+        <v>0.001328111653235716</v>
       </c>
       <c r="E15">
-        <v>0.001962596108732765</v>
+        <v>0.001983954067671737</v>
       </c>
       <c r="F15">
-        <v>0.001250241631961096</v>
+        <v>0.001304157885660188</v>
       </c>
       <c r="G15">
-        <v>0.001435646094526936</v>
+        <v>0.001669395445849645</v>
       </c>
       <c r="H15">
-        <v>0.001043701115363895</v>
-      </c>
-      <c r="I15">
-        <v>0.0008983550699082546</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.001291358191456966</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.0002857029899650378</v>
+        <v>0.000321832571420277</v>
       </c>
       <c r="C16">
-        <v>0.0003425732088651411</v>
+        <v>0.0003663355997233411</v>
       </c>
       <c r="D16">
-        <v>0.0003276230966674431</v>
+        <v>0.0003744386721191744</v>
       </c>
       <c r="E16">
-        <v>0.0002574646376106644</v>
+        <v>0.0002498404719018415</v>
       </c>
       <c r="F16">
-        <v>0.0004082439675087865</v>
+        <v>0.0003859046115363031</v>
       </c>
       <c r="G16">
-        <v>0.0002676620491390157</v>
+        <v>0.0003114838152646163</v>
       </c>
       <c r="H16">
-        <v>0.0004358698656008381</v>
-      </c>
-      <c r="I16">
-        <v>0.0003108127797290403</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.0004874417735003507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.0009566469284427828</v>
+        <v>0.001102885071163615</v>
       </c>
       <c r="C17">
-        <v>0.0007929871585328809</v>
+        <v>0.0009497903044699835</v>
       </c>
       <c r="D17">
-        <v>0.00156494404634768</v>
+        <v>0.001698480446040655</v>
       </c>
       <c r="E17">
-        <v>0.001633966246184634</v>
+        <v>0.001760693298746665</v>
       </c>
       <c r="F17">
-        <v>0.001532800467682865</v>
+        <v>0.001767961018826234</v>
       </c>
       <c r="G17">
-        <v>0.0008577061926924631</v>
+        <v>0.001051501518792388</v>
       </c>
       <c r="H17">
-        <v>0.001104840021705039</v>
-      </c>
-      <c r="I17">
-        <v>0.0007070199570190139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.001260517056724887</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.0003715464290493366</v>
+        <v>0.0004295537007218611</v>
       </c>
       <c r="C18">
-        <v>0.0004126028682276176</v>
+        <v>0.000479256576459762</v>
       </c>
       <c r="D18">
-        <v>0.0006485487269992717</v>
+        <v>0.0007251239207871281</v>
       </c>
       <c r="E18">
-        <v>0.0007750707438568085</v>
+        <v>0.0008550941503840933</v>
       </c>
       <c r="F18">
-        <v>0.0003220928433455991</v>
+        <v>0.0003807170825260839</v>
       </c>
       <c r="G18">
-        <v>0.0008538866997339434</v>
+        <v>0.0009675484538761611</v>
       </c>
       <c r="H18">
-        <v>0.0004468367686852534</v>
-      </c>
-      <c r="I18">
-        <v>0.0003195830552243491</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.0005154935596116661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.001155205399949391</v>
+        <v>0.001263744465805151</v>
       </c>
       <c r="C19">
-        <v>0.0006901100363785835</v>
+        <v>0.000855561194289992</v>
       </c>
       <c r="D19">
-        <v>0.0007577374554718758</v>
+        <v>0.0008068826462336769</v>
       </c>
       <c r="E19">
-        <v>0.0006068119603879772</v>
+        <v>0.0006462344628148687</v>
       </c>
       <c r="F19">
-        <v>0.0009986895560961313</v>
+        <v>0.001039640746147618</v>
       </c>
       <c r="G19">
-        <v>0.0006422665703474356</v>
+        <v>0.0007664656183273192</v>
       </c>
       <c r="H19">
-        <v>0.0007218484693229055</v>
-      </c>
-      <c r="I19">
-        <v>0.0005898094540607455</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.000799001221405863</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.003144869650320384</v>
+        <v>0.003764256369824272</v>
       </c>
       <c r="C20">
-        <v>0.002436460173102474</v>
+        <v>0.002948859242278992</v>
       </c>
       <c r="D20">
-        <v>0.005203692344101988</v>
+        <v>0.005292108164267593</v>
       </c>
       <c r="E20">
-        <v>0.003895152725615868</v>
+        <v>0.00395919979661957</v>
       </c>
       <c r="F20">
-        <v>0.003061043570022813</v>
+        <v>0.003208501096039723</v>
       </c>
       <c r="G20">
-        <v>0.002739854563344885</v>
+        <v>0.003388791045760995</v>
       </c>
       <c r="H20">
-        <v>0.00250171994791046</v>
-      </c>
-      <c r="I20">
-        <v>0.002365994132781679</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.002998064609089695</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.003592000365033668</v>
+        <v>0.004303789625577021</v>
       </c>
       <c r="C21">
-        <v>0.002713129963928526</v>
+        <v>0.00331073935438972</v>
       </c>
       <c r="D21">
-        <v>0.003437315977117416</v>
+        <v>0.00350522557840316</v>
       </c>
       <c r="E21">
-        <v>0.003289496000083731</v>
+        <v>0.00335765034768979</v>
       </c>
       <c r="F21">
-        <v>0.003587610961106326</v>
+        <v>0.003633288398809674</v>
       </c>
       <c r="G21">
-        <v>0.002532564717745898</v>
+        <v>0.003139753139668161</v>
       </c>
       <c r="H21">
-        <v>0.002310132395998821</v>
-      </c>
-      <c r="I21">
-        <v>0.002241507019113367</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.002578567465187648</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.0007501651477108913</v>
+        <v>0.0009172111290075427</v>
       </c>
       <c r="C22">
-        <v>0.0009066186748083162</v>
+        <v>0.001084618538072186</v>
       </c>
       <c r="D22">
-        <v>0.001491609133418691</v>
+        <v>0.001560487877486752</v>
       </c>
       <c r="E22">
-        <v>0.002168224578579737</v>
+        <v>0.002283549516910127</v>
       </c>
       <c r="F22">
-        <v>0.0009130887100396198</v>
+        <v>0.001035229875775567</v>
       </c>
       <c r="G22">
-        <v>0.0007488312249080289</v>
+        <v>0.0009156576141187856</v>
       </c>
       <c r="H22">
-        <v>0.0008134235739489643</v>
-      </c>
-      <c r="I22">
-        <v>0.0007111450892764792</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.0009817266734961666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.001041684859746996</v>
+        <v>0.001250386066575547</v>
       </c>
       <c r="C23">
-        <v>0.001189609920798114</v>
+        <v>0.001437230135269999</v>
       </c>
       <c r="D23">
-        <v>0.002012222934814533</v>
+        <v>0.00202180151636163</v>
       </c>
       <c r="E23">
-        <v>0.001739764307829554</v>
+        <v>0.001754116336184309</v>
       </c>
       <c r="F23">
-        <v>0.001786270679253913</v>
+        <v>0.001824474490054743</v>
       </c>
       <c r="G23">
-        <v>0.001223965735029872</v>
+        <v>0.001517411333229936</v>
       </c>
       <c r="H23">
-        <v>0.001051172211696473</v>
-      </c>
-      <c r="I23">
-        <v>0.001098953501832377</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.001285106257359182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.001757294308172203</v>
+        <v>0.002087143001237463</v>
       </c>
       <c r="C24">
-        <v>0.001001652534847227</v>
+        <v>0.001138510033280131</v>
       </c>
       <c r="D24">
-        <v>0.00239671282405776</v>
+        <v>0.00246110606358206</v>
       </c>
       <c r="E24">
-        <v>0.002455675460349431</v>
+        <v>0.002556102254722676</v>
       </c>
       <c r="F24">
-        <v>0.001054980488900509</v>
+        <v>0.001210251221485309</v>
       </c>
       <c r="G24">
-        <v>0.00115248925764686</v>
+        <v>0.00132435728951562</v>
       </c>
       <c r="H24">
-        <v>0.00123775863001449</v>
-      </c>
-      <c r="I24">
-        <v>0.001144720217976316</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.001510790946946068</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.0004139605725124357</v>
+        <v>0.0004904396339179477</v>
       </c>
       <c r="C25">
-        <v>0.0005150153456218258</v>
+        <v>0.0006026425301500882</v>
       </c>
       <c r="D25">
-        <v>0.0004638664029360174</v>
+        <v>0.0005037968989280819</v>
       </c>
       <c r="E25">
-        <v>0.0004119373059092577</v>
+        <v>0.000445289125889151</v>
       </c>
       <c r="F25">
-        <v>0.001239556241042514</v>
+        <v>0.001303548933959393</v>
       </c>
       <c r="G25">
-        <v>0.0005742933798953761</v>
+        <v>0.000666866029899942</v>
       </c>
       <c r="H25">
-        <v>0.000506285212322508</v>
-      </c>
-      <c r="I25">
-        <v>0.0004116810449898784</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.0005909216189622363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.0005437480226359435</v>
+        <v>0.0005692451836394562</v>
       </c>
       <c r="C26">
-        <v>0.0005126262173638076</v>
+        <v>0.0005671227168599078</v>
       </c>
       <c r="D26">
-        <v>0.001240515138386455</v>
+        <v>0.0011600413557298</v>
       </c>
       <c r="E26">
-        <v>0.0009702371593760165</v>
+        <v>0.000963721786203314</v>
       </c>
       <c r="F26">
-        <v>0.0008174623778352049</v>
+        <v>0.0008831501674822593</v>
       </c>
       <c r="G26">
-        <v>0.000599195598378398</v>
+        <v>0.0006698410780837758</v>
       </c>
       <c r="H26">
-        <v>0.001852922925613917</v>
-      </c>
-      <c r="I26">
-        <v>0.0009036018081415814</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.002170553185731024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.0007694558180573431</v>
+        <v>0.000870159982155653</v>
       </c>
       <c r="C27">
-        <v>0.0006854875253597073</v>
+        <v>0.0008185717588860199</v>
       </c>
       <c r="D27">
-        <v>0.0006432825782792645</v>
+        <v>0.0006720916993256118</v>
       </c>
       <c r="E27">
-        <v>0.0004135886296176392</v>
+        <v>0.0004602064770629718</v>
       </c>
       <c r="F27">
-        <v>0.0004102844053771913</v>
+        <v>0.000432905980348479</v>
       </c>
       <c r="G27">
-        <v>0.0004784705105282769</v>
+        <v>0.0005374691138562036</v>
       </c>
       <c r="H27">
-        <v>0.0007908577294836938</v>
-      </c>
-      <c r="I27">
-        <v>0.000477650058366153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>0.0008127738433523136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.00088772340903503</v>
+        <v>0.00104004221099524</v>
       </c>
       <c r="C28">
-        <v>0.001161463619497642</v>
+        <v>0.001417565824308806</v>
       </c>
       <c r="D28">
-        <v>0.001603187653233987</v>
+        <v>0.001628816723340607</v>
       </c>
       <c r="E28">
-        <v>0.001299572944899405</v>
+        <v>0.001316384755204241</v>
       </c>
       <c r="F28">
-        <v>0.001772406010809914</v>
+        <v>0.00183764731381252</v>
       </c>
       <c r="G28">
-        <v>0.0009349898576765885</v>
+        <v>0.00110481988791023</v>
       </c>
       <c r="H28">
-        <v>0.0008737357308181463</v>
-      </c>
-      <c r="I28">
-        <v>0.0009528560044671886</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.001052347041872522</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.001181737673191475</v>
+        <v>0.001319938489601282</v>
       </c>
       <c r="C29">
-        <v>0.0004907033214247593</v>
+        <v>0.0005347881145902934</v>
       </c>
       <c r="D29">
-        <v>0.0002681692132457059</v>
+        <v>0.0003011073581408908</v>
       </c>
       <c r="E29">
-        <v>0.0002911175273350312</v>
+        <v>0.0003576058023235789</v>
       </c>
       <c r="F29">
-        <v>0.0008715782964864416</v>
+        <v>0.0008871478181758589</v>
       </c>
       <c r="G29">
-        <v>0.0005798762856533894</v>
+        <v>0.0006018732549362378</v>
       </c>
       <c r="H29">
-        <v>0.0003511894974508264</v>
-      </c>
-      <c r="I29">
-        <v>0.0004821190728215659</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.0004014673793588228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.008176830808695457</v>
+        <v>0.008826496331423532</v>
       </c>
       <c r="C30">
-        <v>0.005556612037483087</v>
+        <v>0.006018169565652065</v>
       </c>
       <c r="D30">
-        <v>0.006934775345504548</v>
+        <v>0.008597414681889726</v>
       </c>
       <c r="E30">
-        <v>0.007171173737238207</v>
+        <v>0.008890490711253798</v>
       </c>
       <c r="F30">
-        <v>0.005305743285791196</v>
+        <v>0.006577814445753326</v>
       </c>
       <c r="G30">
-        <v>0.005632383780358133</v>
+        <v>0.006135384268647446</v>
       </c>
       <c r="H30">
-        <v>0.006717863866013295</v>
-      </c>
-      <c r="I30">
-        <v>0.003318393960499441</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.007243358384919983</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.0008405374013478906</v>
+        <v>0.000949122004348927</v>
       </c>
       <c r="C31">
-        <v>0.0009010022451349057</v>
+        <v>0.001033215941008907</v>
       </c>
       <c r="D31">
-        <v>0.000892885693647909</v>
+        <v>0.0009326458786854153</v>
       </c>
       <c r="E31">
-        <v>0.001170693222647676</v>
+        <v>0.001210617936299709</v>
       </c>
       <c r="F31">
-        <v>0.0007591084321426373</v>
+        <v>0.0007822593782985218</v>
       </c>
       <c r="G31">
-        <v>0.0008929750494687623</v>
+        <v>0.0009997706750244921</v>
       </c>
       <c r="H31">
-        <v>0.0007066628880683253</v>
-      </c>
-      <c r="I31">
-        <v>0.0007551150257330038</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.0007978975843448509</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.0006498807908112755</v>
+        <v>0.0007282836267232204</v>
       </c>
       <c r="C32">
-        <v>0.00114190317952961</v>
+        <v>0.001215005375942206</v>
       </c>
       <c r="D32">
-        <v>0.0009229722158455542</v>
+        <v>0.00103853574801389</v>
       </c>
       <c r="E32">
-        <v>0.0007639767279150309</v>
+        <v>0.0008766509920952453</v>
       </c>
       <c r="F32">
-        <v>0.0009921270301493086</v>
+        <v>0.001173463054915346</v>
       </c>
       <c r="G32">
-        <v>0.000719066751898086</v>
+        <v>0.0008568244117546503</v>
       </c>
       <c r="H32">
-        <v>0.001213565724263733</v>
-      </c>
-      <c r="I32">
-        <v>0.0005396280213324154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.001380996542873198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.001579405687075433</v>
+        <v>0.001913907946009255</v>
       </c>
       <c r="C33">
-        <v>0.001711662930859295</v>
+        <v>0.002112043582704832</v>
       </c>
       <c r="D33">
-        <v>0.002358075693373494</v>
+        <v>0.002355752416752407</v>
       </c>
       <c r="E33">
-        <v>0.002375935775482457</v>
+        <v>0.002362327548407178</v>
       </c>
       <c r="F33">
-        <v>0.002313420424638696</v>
+        <v>0.002297722828992788</v>
       </c>
       <c r="G33">
-        <v>0.001846113376029311</v>
+        <v>0.002255983691514447</v>
       </c>
       <c r="H33">
-        <v>0.001646594175362113</v>
-      </c>
-      <c r="I33">
-        <v>0.001569886838206838</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.00190329923396964</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.0008284294656221461</v>
+        <v>0.0009955661238421013</v>
       </c>
       <c r="C34">
-        <v>0.001845803670974963</v>
+        <v>0.002071508550269825</v>
       </c>
       <c r="D34">
-        <v>0.001677503747395533</v>
+        <v>0.001762019228103867</v>
       </c>
       <c r="E34">
-        <v>0.001364275267617837</v>
+        <v>0.001430964450486464</v>
       </c>
       <c r="F34">
-        <v>0.0006693462473085712</v>
+        <v>0.0007202486540598496</v>
       </c>
       <c r="G34">
-        <v>0.00105638302025683</v>
+        <v>0.001201570308466466</v>
       </c>
       <c r="H34">
-        <v>0.0008015436632599725</v>
-      </c>
-      <c r="I34">
-        <v>0.0008421576694351887</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.0009937115626767194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.0009111732107605793</v>
+        <v>0.001101871979301297</v>
       </c>
       <c r="C35">
-        <v>0.001088559674934772</v>
+        <v>0.001318249345205932</v>
       </c>
       <c r="D35">
-        <v>0.00233174513204458</v>
+        <v>0.002378850183041928</v>
       </c>
       <c r="E35">
-        <v>0.001473880486684806</v>
+        <v>0.001477369093902418</v>
       </c>
       <c r="F35">
-        <v>0.001254256024162159</v>
+        <v>0.001251189010363318</v>
       </c>
       <c r="G35">
-        <v>0.0009697386383473924</v>
+        <v>0.001176445404649263</v>
       </c>
       <c r="H35">
-        <v>0.001069862268754823</v>
-      </c>
-      <c r="I35">
-        <v>0.00102322593238717</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.001308277344400335</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.0001943616129472661</v>
+        <v>0.0002209837420298688</v>
       </c>
       <c r="C36">
-        <v>0.0001899452205391617</v>
+        <v>0.0002063258362587443</v>
       </c>
       <c r="D36">
-        <v>8.625777754904534E-05</v>
+        <v>0.0001069324872906788</v>
       </c>
       <c r="E36">
-        <v>7.688051300714055E-05</v>
+        <v>8.507918962950747E-05</v>
       </c>
       <c r="F36">
-        <v>0.0003371006220430697</v>
+        <v>0.0003647005278076403</v>
       </c>
       <c r="G36">
-        <v>0.0002210552277717397</v>
+        <v>0.0002467359275774319</v>
       </c>
       <c r="H36">
-        <v>0.0001099067515164365</v>
-      </c>
-      <c r="I36">
-        <v>0.0001236574826958698</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.0001228748177992886</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.0006262700430242276</v>
+        <v>0.0007055647869331664</v>
       </c>
       <c r="C37">
-        <v>0.0009575680772042059</v>
+        <v>0.001144000177078876</v>
       </c>
       <c r="D37">
-        <v>0.001060162324708581</v>
+        <v>0.001114351100788785</v>
       </c>
       <c r="E37">
-        <v>0.0007239658452316126</v>
+        <v>0.0007673526133170146</v>
       </c>
       <c r="F37">
-        <v>0.001953801370823315</v>
+        <v>0.00204215700828003</v>
       </c>
       <c r="G37">
-        <v>0.001274259924983999</v>
+        <v>0.001497539015744572</v>
       </c>
       <c r="H37">
-        <v>0.000714975828267908</v>
-      </c>
-      <c r="I37">
-        <v>0.0007586388989456751</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>0.000852366340563834</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.001298446641411243</v>
+        <v>0.00155396466794307</v>
       </c>
       <c r="C38">
-        <v>0.002082160301818216</v>
+        <v>0.002420674578091643</v>
       </c>
       <c r="D38">
-        <v>0.002091183071375822</v>
+        <v>0.002135940422388067</v>
       </c>
       <c r="E38">
-        <v>0.002588164708723675</v>
+        <v>0.00264954128477606</v>
       </c>
       <c r="F38">
-        <v>0.001640548724618845</v>
+        <v>0.001703414194459559</v>
       </c>
       <c r="G38">
-        <v>0.001383810159606495</v>
+        <v>0.001597991007338683</v>
       </c>
       <c r="H38">
-        <v>0.001352615012375123</v>
-      </c>
-      <c r="I38">
-        <v>0.001365873325286764</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.001663873251297643</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.0008392981217453597</v>
+        <v>0.0009752822036051277</v>
       </c>
       <c r="C39">
-        <v>0.001246755376305706</v>
+        <v>0.001506441498202467</v>
       </c>
       <c r="D39">
-        <v>0.001636708594576668</v>
+        <v>0.001657197779637202</v>
       </c>
       <c r="E39">
-        <v>0.001922254560933534</v>
+        <v>0.001967638050364988</v>
       </c>
       <c r="F39">
-        <v>0.0008051195403780251</v>
+        <v>0.0008344079195334994</v>
       </c>
       <c r="G39">
-        <v>0.0009159323941438106</v>
+        <v>0.001066895294501995</v>
       </c>
       <c r="H39">
-        <v>0.000886702710764553</v>
-      </c>
-      <c r="I39">
-        <v>0.0009068469294683777</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.001099287896441241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.0008351013053649401</v>
+        <v>0.0009917211485092527</v>
       </c>
       <c r="C40">
-        <v>0.001542612714456705</v>
+        <v>0.001835508565656976</v>
       </c>
       <c r="D40">
-        <v>0.001805130723283353</v>
+        <v>0.001878007122098012</v>
       </c>
       <c r="E40">
-        <v>0.001401811778256586</v>
+        <v>0.001350236269806594</v>
       </c>
       <c r="F40">
-        <v>0.001053120008881536</v>
+        <v>0.001070656985355813</v>
       </c>
       <c r="G40">
-        <v>0.0009370142458403576</v>
+        <v>0.001118159815174193</v>
       </c>
       <c r="H40">
-        <v>0.0007442525998664273</v>
-      </c>
-      <c r="I40">
-        <v>0.001019539866923677</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.0008053102535010771</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.0005983465606737856</v>
+        <v>0.0006860897745393329</v>
       </c>
       <c r="C41">
-        <v>0.0007863964129297251</v>
+        <v>0.0008971181136849716</v>
       </c>
       <c r="D41">
-        <v>0.001068443410837726</v>
+        <v>0.001156429259386774</v>
       </c>
       <c r="E41">
-        <v>0.001224293122497417</v>
+        <v>0.001312814503805335</v>
       </c>
       <c r="F41">
-        <v>0.0008333116577420621</v>
+        <v>0.0009478084879975523</v>
       </c>
       <c r="G41">
-        <v>0.0005775779117909102</v>
+        <v>0.0007087704019307643</v>
       </c>
       <c r="H41">
-        <v>0.0006491891712034465</v>
-      </c>
-      <c r="I41">
-        <v>0.0005316977236296225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.000744965780489866</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.0007770992042655657</v>
+        <v>0.0008590842567957379</v>
       </c>
       <c r="C42">
-        <v>0.0007861689482051244</v>
+        <v>0.0009112635064192938</v>
       </c>
       <c r="D42">
-        <v>0.001122786454413832</v>
+        <v>0.001121911843625261</v>
       </c>
       <c r="E42">
-        <v>0.001646977027530147</v>
+        <v>0.001701792148340201</v>
       </c>
       <c r="F42">
-        <v>0.0004054117868563633</v>
+        <v>0.0004616663350434489</v>
       </c>
       <c r="G42">
-        <v>0.001270672361046445</v>
+        <v>0.001478020868963437</v>
       </c>
       <c r="H42">
-        <v>0.0007147412206036404</v>
-      </c>
-      <c r="I42">
-        <v>0.0007500657180367854</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>0.000872303172107538</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.001463139288940951</v>
+        <v>0.001748110032738847</v>
       </c>
       <c r="C43">
-        <v>0.00115843387383557</v>
+        <v>0.001339533204354023</v>
       </c>
       <c r="D43">
-        <v>0.00175526227534989</v>
+        <v>0.001763884839578436</v>
       </c>
       <c r="E43">
-        <v>0.001719166827613807</v>
+        <v>0.001717710238381664</v>
       </c>
       <c r="F43">
-        <v>0.001642403665993189</v>
+        <v>0.001678727311000786</v>
       </c>
       <c r="G43">
-        <v>0.001086373564662945</v>
+        <v>0.001314673844337518</v>
       </c>
       <c r="H43">
-        <v>0.001022084812651685</v>
-      </c>
-      <c r="I43">
-        <v>0.001175546129620444</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.001187674445316833</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.0002958005808506524</v>
+        <v>0.000343517238149486</v>
       </c>
       <c r="C44">
-        <v>0.0005132045858071263</v>
+        <v>0.0005459158280253594</v>
       </c>
       <c r="D44">
-        <v>0.0001616778282858631</v>
+        <v>0.0002004348535389519</v>
       </c>
       <c r="E44">
-        <v>0.0003710218554309392</v>
+        <v>0.0004020741672180135</v>
       </c>
       <c r="F44">
-        <v>0.000242941754891978</v>
+        <v>0.0002652412341621159</v>
       </c>
       <c r="G44">
-        <v>0.000261117220934285</v>
+        <v>0.0003186934312041502</v>
       </c>
       <c r="H44">
-        <v>0.0002921085742566174</v>
-      </c>
-      <c r="I44">
-        <v>0.0002070351686393165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.0003178938822051495</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.0002918569131232769</v>
+        <v>0.0003245121550443541</v>
       </c>
       <c r="C45">
-        <v>0.0002132993539487343</v>
+        <v>0.0002225100315550697</v>
       </c>
       <c r="D45">
-        <v>0.0004277709770416084</v>
+        <v>0.0003902522157876378</v>
       </c>
       <c r="E45">
-        <v>0.0005387793750946338</v>
+        <v>0.0005375682763189173</v>
       </c>
       <c r="F45">
-        <v>0.000322030915406777</v>
+        <v>0.0003540865867236039</v>
       </c>
       <c r="G45">
-        <v>0.0009465229562151395</v>
+        <v>0.00108767034125619</v>
       </c>
       <c r="H45">
-        <v>0.0002223628619316354</v>
-      </c>
-      <c r="I45">
-        <v>0.0004282088054911733</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.0002254588724587153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.0008647196642212708</v>
+        <v>0.000989038340616367</v>
       </c>
       <c r="C46">
-        <v>0.001463123694235622</v>
+        <v>0.001657034119580899</v>
       </c>
       <c r="D46">
-        <v>0.001122402589454649</v>
+        <v>0.001170870998339599</v>
       </c>
       <c r="E46">
-        <v>0.0008197956609804642</v>
+        <v>0.0008677683826177191</v>
       </c>
       <c r="F46">
-        <v>0.001240471796231058</v>
+        <v>0.001286389375378559</v>
       </c>
       <c r="G46">
-        <v>0.0007535984220635286</v>
+        <v>0.0009119890342757924</v>
       </c>
       <c r="H46">
-        <v>0.0006659119536467912</v>
-      </c>
-      <c r="I46">
-        <v>0.0007121441991037946</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.0008255615062496135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.003972079935785583</v>
+        <v>0.004396043343779005</v>
       </c>
       <c r="C47">
-        <v>0.003612241714675863</v>
+        <v>0.003985921253144914</v>
       </c>
       <c r="D47">
-        <v>0.004942220491849632</v>
+        <v>0.005303711066034556</v>
       </c>
       <c r="E47">
-        <v>0.004681092320235526</v>
+        <v>0.00503467898661764</v>
       </c>
       <c r="F47">
-        <v>0.00445919172228579</v>
+        <v>0.004786973325762551</v>
       </c>
       <c r="G47">
-        <v>0.003639420006399001</v>
+        <v>0.004325520739092353</v>
       </c>
       <c r="H47">
-        <v>0.003683084085783215</v>
-      </c>
-      <c r="I47">
-        <v>0.003216668099893757</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.004118937676943709</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.0005560848985944183</v>
+        <v>0.0006881466629358414</v>
       </c>
       <c r="C48">
-        <v>0.0007493292199793237</v>
+        <v>0.0008888065267027642</v>
       </c>
       <c r="D48">
-        <v>0.0007713887417021921</v>
+        <v>0.0007693714683410529</v>
       </c>
       <c r="E48">
-        <v>0.0003785198964696412</v>
+        <v>0.0004112069608907445</v>
       </c>
       <c r="F48">
-        <v>0.001071805665669097</v>
+        <v>0.001091716858506714</v>
       </c>
       <c r="G48">
-        <v>0.0007614739379373877</v>
+        <v>0.0008095048970060055</v>
       </c>
       <c r="H48">
-        <v>0.0005757568046912454</v>
-      </c>
-      <c r="I48">
-        <v>0.0005586986597711506</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.0006792156970089943</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.0007529381762227886</v>
+        <v>0.0008798297774642932</v>
       </c>
       <c r="C49">
-        <v>0.0004031429208179525</v>
+        <v>0.0004500898055872763</v>
       </c>
       <c r="D49">
-        <v>0.0006079962221388639</v>
+        <v>0.000723284721586933</v>
       </c>
       <c r="E49">
-        <v>0.0004781184474274283</v>
+        <v>0.0005265392987409113</v>
       </c>
       <c r="F49">
-        <v>0.0009195637142320108</v>
+        <v>0.0009148788753308316</v>
       </c>
       <c r="G49">
-        <v>0.0004067005449543119</v>
+        <v>0.0004876644487974064</v>
       </c>
       <c r="H49">
-        <v>0.0008773671095079678</v>
-      </c>
-      <c r="I49">
-        <v>0.0004955484765308567</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.0009150958111393056</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.00111825173315072</v>
+        <v>0.001386351897115692</v>
       </c>
       <c r="C50">
-        <v>0.0009335468405041787</v>
+        <v>0.001135678420955029</v>
       </c>
       <c r="D50">
-        <v>0.001469420642100915</v>
+        <v>0.001475199204853887</v>
       </c>
       <c r="E50">
-        <v>0.001897579444987907</v>
+        <v>0.001921127945913295</v>
       </c>
       <c r="F50">
-        <v>0.001336979560557708</v>
+        <v>0.001360488081812347</v>
       </c>
       <c r="G50">
-        <v>0.0009436235473743316</v>
+        <v>0.001159779104605647</v>
       </c>
       <c r="H50">
-        <v>0.0009441435625359387</v>
-      </c>
-      <c r="I50">
-        <v>0.000964842475083297</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.001081089697125994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.001637320893520704</v>
+        <v>0.001979739010252678</v>
       </c>
       <c r="C51">
-        <v>0.001647627254373975</v>
+        <v>0.002029749995303625</v>
       </c>
       <c r="D51">
-        <v>0.002779988133664543</v>
+        <v>0.002803217159427268</v>
       </c>
       <c r="E51">
-        <v>0.002539300943589182</v>
+        <v>0.00255863026867239</v>
       </c>
       <c r="F51">
-        <v>0.001943509212343854</v>
+        <v>0.001948064358435964</v>
       </c>
       <c r="G51">
-        <v>0.00191596137350669</v>
+        <v>0.002276093266183068</v>
       </c>
       <c r="H51">
-        <v>0.001450724119170313</v>
-      </c>
-      <c r="I51">
-        <v>0.001562891074963069</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.001717393405767608</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.0004368857279667329</v>
+        <v>0.0004820664368031159</v>
       </c>
       <c r="C52">
-        <v>0.001026491127957766</v>
+        <v>0.001186872515917226</v>
       </c>
       <c r="D52">
-        <v>0.000801359641433452</v>
+        <v>0.000876924183413883</v>
       </c>
       <c r="E52">
-        <v>0.0007822133728378267</v>
+        <v>0.0009697467432808258</v>
       </c>
       <c r="F52">
-        <v>0.001349793519872882</v>
+        <v>0.001396908580624079</v>
       </c>
       <c r="G52">
-        <v>0.000570121059435778</v>
+        <v>0.0005913291993298879</v>
       </c>
       <c r="H52">
-        <v>0.0004214297993826074</v>
-      </c>
-      <c r="I52">
-        <v>0.0005613918235026822</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.0004803335590867003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.0009775736144654668</v>
+        <v>0.0009786306016555239</v>
       </c>
       <c r="C53">
-        <v>0.001282619024814188</v>
+        <v>0.001585305474388271</v>
       </c>
       <c r="D53">
-        <v>0.001005449585082044</v>
+        <v>0.00107204677490648</v>
       </c>
       <c r="E53">
-        <v>0.001012541229322069</v>
+        <v>0.001060317620132174</v>
       </c>
       <c r="F53">
-        <v>0.001450989758986474</v>
+        <v>0.001402158580932843</v>
       </c>
       <c r="G53">
-        <v>0.0008935216287941339</v>
+        <v>0.0009885009581891667</v>
       </c>
       <c r="H53">
-        <v>0.002232317292420729</v>
-      </c>
-      <c r="I53">
-        <v>0.001284286006029758</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.002298889680265332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.00138298592804587</v>
+        <v>0.001651515810266183</v>
       </c>
       <c r="C54">
-        <v>0.001097529862231485</v>
+        <v>0.001331828572818228</v>
       </c>
       <c r="D54">
-        <v>0.001580689399382425</v>
+        <v>0.001592989608538508</v>
       </c>
       <c r="E54">
-        <v>0.001559016653564083</v>
+        <v>0.001568092984040429</v>
       </c>
       <c r="F54">
-        <v>0.001937099443982022</v>
+        <v>0.00196443244076169</v>
       </c>
       <c r="G54">
-        <v>0.001193983381408164</v>
+        <v>0.00144426655494916</v>
       </c>
       <c r="H54">
-        <v>0.001068992489160038</v>
-      </c>
-      <c r="I54">
-        <v>0.00108242587522089</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.001279697470151174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.002208755090847832</v>
+        <v>0.002686924183360159</v>
       </c>
       <c r="C55">
-        <v>0.001826970655772253</v>
+        <v>0.002123428711931991</v>
       </c>
       <c r="D55">
-        <v>0.003415214067186056</v>
+        <v>0.003460064320747301</v>
       </c>
       <c r="E55">
-        <v>0.003564868034783505</v>
+        <v>0.00362133120815936</v>
       </c>
       <c r="F55">
-        <v>0.002293543054983618</v>
+        <v>0.002407508387829998</v>
       </c>
       <c r="G55">
-        <v>0.002108182767745261</v>
+        <v>0.002597379801545007</v>
       </c>
       <c r="H55">
-        <v>0.001925627086275201</v>
-      </c>
-      <c r="I55">
-        <v>0.001918754328745465</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.002225850545661374</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.002293219210918141</v>
+        <v>0.00267400021585585</v>
       </c>
       <c r="C56">
-        <v>0.002004989208054774</v>
+        <v>0.002396424193828903</v>
       </c>
       <c r="D56">
-        <v>0.002501440032117863</v>
+        <v>0.002526861262583277</v>
       </c>
       <c r="E56">
-        <v>0.002064793784721691</v>
+        <v>0.002077771055211649</v>
       </c>
       <c r="F56">
-        <v>0.001959248386215757</v>
+        <v>0.001955878720753065</v>
       </c>
       <c r="G56">
-        <v>0.001516150843486885</v>
+        <v>0.001821775202222497</v>
       </c>
       <c r="H56">
-        <v>0.001312023560448105</v>
-      </c>
-      <c r="I56">
-        <v>0.001589603994414502</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.001501540777737367</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.002831248043844225</v>
+        <v>0.00339539575656743</v>
       </c>
       <c r="C57">
-        <v>0.002184743124929569</v>
+        <v>0.002433272221065456</v>
       </c>
       <c r="D57">
-        <v>0.005451660928863512</v>
+        <v>0.005295169348157948</v>
       </c>
       <c r="E57">
-        <v>0.005046469239341368</v>
+        <v>0.004999897607108223</v>
       </c>
       <c r="F57">
-        <v>0.003046237050402796</v>
+        <v>0.003090844211174204</v>
       </c>
       <c r="G57">
-        <v>0.003849408102466475</v>
+        <v>0.004772315982663593</v>
       </c>
       <c r="H57">
-        <v>0.003508390279898074</v>
-      </c>
-      <c r="I57">
-        <v>0.003061679220151915</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>0.004349537516838278</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.00276962103508399</v>
+        <v>0.003010227388037984</v>
       </c>
       <c r="C58">
-        <v>0.002104826221670558</v>
+        <v>0.002334886710527221</v>
       </c>
       <c r="D58">
-        <v>0.003855478681770465</v>
+        <v>0.004248446295337442</v>
       </c>
       <c r="E58">
-        <v>0.00264570268145896</v>
+        <v>0.003075415368968306</v>
       </c>
       <c r="F58">
-        <v>0.002660040035982301</v>
+        <v>0.003041481263493588</v>
       </c>
       <c r="G58">
-        <v>0.002728437320131407</v>
+        <v>0.002992971142016294</v>
       </c>
       <c r="H58">
-        <v>0.002023581914647193</v>
-      </c>
-      <c r="I58">
-        <v>0.001799427549208524</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.002357854309531786</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.001126875319383059</v>
+        <v>0.001384119627737126</v>
       </c>
       <c r="C59">
-        <v>0.003962283423110144</v>
+        <v>0.004162658752455414</v>
       </c>
       <c r="D59">
-        <v>0.003889335759293075</v>
+        <v>0.00441687191711022</v>
       </c>
       <c r="E59">
-        <v>0.004337321572421863</v>
+        <v>0.005133410858540182</v>
       </c>
       <c r="F59">
-        <v>0.003882446849432109</v>
+        <v>0.004813275926192995</v>
       </c>
       <c r="G59">
-        <v>0.004540411429219411</v>
+        <v>0.004690029596453656</v>
       </c>
       <c r="H59">
-        <v>0.004144359137676261</v>
-      </c>
-      <c r="I59">
-        <v>0.002542875023990525</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.004335711680014798</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.00380353224013857</v>
+        <v>0.004579218011902488</v>
       </c>
       <c r="C60">
-        <v>0.00250087918742044</v>
+        <v>0.003062893877630342</v>
       </c>
       <c r="D60">
-        <v>0.004560782309181556</v>
+        <v>0.004616674861618143</v>
       </c>
       <c r="E60">
-        <v>0.005072955166997636</v>
+        <v>0.005140513998570711</v>
       </c>
       <c r="F60">
-        <v>0.004136179615865229</v>
+        <v>0.004157313620411075</v>
       </c>
       <c r="G60">
-        <v>0.003018677585178204</v>
+        <v>0.003722655297634341</v>
       </c>
       <c r="H60">
-        <v>0.002773240804318904</v>
-      </c>
-      <c r="I60">
-        <v>0.002756245375390902</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.003371470539697268</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.001456891474739292</v>
+        <v>0.001708280698733556</v>
       </c>
       <c r="C61">
-        <v>0.001062382578683267</v>
+        <v>0.001305350924410371</v>
       </c>
       <c r="D61">
-        <v>0.002181844853470262</v>
+        <v>0.002298970193692347</v>
       </c>
       <c r="E61">
-        <v>0.001816026311296438</v>
+        <v>0.001904955893873161</v>
       </c>
       <c r="F61">
-        <v>0.00188766265735708</v>
+        <v>0.002003177496600617</v>
       </c>
       <c r="G61">
-        <v>0.001553518918997066</v>
+        <v>0.001836221544324094</v>
       </c>
       <c r="H61">
-        <v>0.00122334919459425</v>
-      </c>
-      <c r="I61">
-        <v>0.00105625904954998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.001496083010919293</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.0005975562453330844</v>
+        <v>0.0006775703628974114</v>
       </c>
       <c r="C62">
-        <v>0.0004406357531368267</v>
+        <v>0.0005075089709307545</v>
       </c>
       <c r="D62">
-        <v>0.0008208885863930917</v>
+        <v>0.0009159475097671619</v>
       </c>
       <c r="E62">
-        <v>0.0009618789373134831</v>
+        <v>0.001055401023682868</v>
       </c>
       <c r="F62">
-        <v>0.0004855005559139609</v>
+        <v>0.0005623959936657667</v>
       </c>
       <c r="G62">
-        <v>0.0005708126376347625</v>
+        <v>0.000649574869255076</v>
       </c>
       <c r="H62">
-        <v>0.0004758444787669173</v>
-      </c>
-      <c r="I62">
-        <v>0.0003736968142594453</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.0005651125960933127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.0007597584688380125</v>
+        <v>0.0009176371242037592</v>
       </c>
       <c r="C63">
-        <v>0.0007064067934142213</v>
+        <v>0.0008700131853019806</v>
       </c>
       <c r="D63">
-        <v>0.001283487527606398</v>
+        <v>0.001327555944938853</v>
       </c>
       <c r="E63">
-        <v>0.00120073214193627</v>
+        <v>0.001266481848612008</v>
       </c>
       <c r="F63">
-        <v>0.0004472498838542573</v>
+        <v>0.000528914853855459</v>
       </c>
       <c r="G63">
-        <v>0.0007906138774398169</v>
+        <v>0.0008702621358581181</v>
       </c>
       <c r="H63">
-        <v>0.001193031570636963</v>
-      </c>
-      <c r="I63">
-        <v>0.000598985242706941</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.001387768635531296</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.001528333062824803</v>
+        <v>0.001879519555579502</v>
       </c>
       <c r="C64">
-        <v>0.00155254442117197</v>
+        <v>0.00187203970007419</v>
       </c>
       <c r="D64">
-        <v>0.002801328489631742</v>
+        <v>0.002848209450880058</v>
       </c>
       <c r="E64">
-        <v>0.002481590132990804</v>
+        <v>0.002515144734025143</v>
       </c>
       <c r="F64">
-        <v>0.001933923728017305</v>
+        <v>0.002003053609314485</v>
       </c>
       <c r="G64">
-        <v>0.002069918881882515</v>
+        <v>0.002453909436019706</v>
       </c>
       <c r="H64">
-        <v>0.001509132860643874</v>
-      </c>
-      <c r="I64">
-        <v>0.001496366565328333</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.001776795453473487</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.0006099399379932948</v>
+        <v>0.0006510138668153537</v>
       </c>
       <c r="C65">
-        <v>0.0008165148179101259</v>
+        <v>0.0009754012770265715</v>
       </c>
       <c r="D65">
-        <v>0.00131052427685497</v>
+        <v>0.001271628450286331</v>
       </c>
       <c r="E65">
-        <v>0.001295820224833</v>
+        <v>0.001252120383558314</v>
       </c>
       <c r="F65">
-        <v>0.002207482986205011</v>
+        <v>0.002302010416655124</v>
       </c>
       <c r="G65">
-        <v>0.0008456396820933466</v>
+        <v>0.00092026978199158</v>
       </c>
       <c r="H65">
-        <v>0.001820539578755857</v>
-      </c>
-      <c r="I65">
-        <v>0.00119860490812437</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.00218341366422035</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.0006655569453677382</v>
+        <v>0.0007548507079844391</v>
       </c>
       <c r="C66">
-        <v>0.001131194320131408</v>
+        <v>0.001278400700038292</v>
       </c>
       <c r="D66">
-        <v>0.0005458793994565057</v>
+        <v>0.0006280988574064614</v>
       </c>
       <c r="E66">
-        <v>0.0004801567170751879</v>
+        <v>0.0005585748054922063</v>
       </c>
       <c r="F66">
-        <v>0.00107010759486663</v>
+        <v>0.0011298009112033</v>
       </c>
       <c r="G66">
-        <v>0.000560787828685212</v>
+        <v>0.000661807322205228</v>
       </c>
       <c r="H66">
-        <v>0.0004756454975777632</v>
-      </c>
-      <c r="I66">
-        <v>0.0004160169993927764</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.0005838718311192986</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.002832324444074962</v>
+        <v>0.003501365917502547</v>
       </c>
       <c r="C67">
-        <v>0.003944390960655303</v>
+        <v>0.00471980451448796</v>
       </c>
       <c r="D67">
-        <v>0.004767558535910388</v>
+        <v>0.004848399050904624</v>
       </c>
       <c r="E67">
-        <v>0.004392880534698482</v>
+        <v>0.004460264942286342</v>
       </c>
       <c r="F67">
-        <v>0.003269384114807493</v>
+        <v>0.003373762617764055</v>
       </c>
       <c r="G67">
-        <v>0.002936636755579999</v>
+        <v>0.003640703368461977</v>
       </c>
       <c r="H67">
-        <v>0.002674604403422812</v>
-      </c>
-      <c r="I67">
-        <v>0.002542636654876215</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.003071420079058209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.003768857541717586</v>
+        <v>0.004570730990120598</v>
       </c>
       <c r="C68">
-        <v>0.002025575698854205</v>
+        <v>0.002396907187355738</v>
       </c>
       <c r="D68">
-        <v>0.005250197352550821</v>
+        <v>0.005210424183354943</v>
       </c>
       <c r="E68">
-        <v>0.004197879278450944</v>
+        <v>0.00419945718078563</v>
       </c>
       <c r="F68">
-        <v>0.003294416370397205</v>
+        <v>0.003314654949534092</v>
       </c>
       <c r="G68">
-        <v>0.002929970249751599</v>
+        <v>0.003540867776930038</v>
       </c>
       <c r="H68">
-        <v>0.002953687937812479</v>
-      </c>
-      <c r="I68">
-        <v>0.002726875339807242</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.003661842652650886</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.0007035225420477493</v>
+        <v>0.0007446687232893104</v>
       </c>
       <c r="C69">
-        <v>0.0005813913996939625</v>
+        <v>0.0006817122063033434</v>
       </c>
       <c r="D69">
-        <v>0.0005610358022442737</v>
+        <v>0.0005808754373624433</v>
       </c>
       <c r="E69">
-        <v>0.0004745415385382822</v>
+        <v>0.0005030573470025355</v>
       </c>
       <c r="F69">
-        <v>0.0003722325275740834</v>
+        <v>0.000461471042401278</v>
       </c>
       <c r="G69">
-        <v>0.0005204322429010478</v>
+        <v>0.0006227160974819413</v>
       </c>
       <c r="H69">
-        <v>0.0004198758732828561</v>
-      </c>
-      <c r="I69">
-        <v>0.0003465686671895706</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.0004799135890341173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.002145243324113969</v>
+        <v>0.002560366843567913</v>
       </c>
       <c r="C70">
-        <v>0.001947126084692251</v>
+        <v>0.002207452622131464</v>
       </c>
       <c r="D70">
-        <v>0.00308815682364384</v>
+        <v>0.003137984596648921</v>
       </c>
       <c r="E70">
-        <v>0.003426809629526624</v>
+        <v>0.00341433124346011</v>
       </c>
       <c r="F70">
-        <v>0.002963193987260203</v>
+        <v>0.003025737862867124</v>
       </c>
       <c r="G70">
-        <v>0.003741531227502344</v>
+        <v>0.004471373535507811</v>
       </c>
       <c r="H70">
-        <v>0.002553882816807579</v>
-      </c>
-      <c r="I70">
-        <v>0.002164675806828464</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.003127990513570324</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.001603038755749865</v>
+        <v>0.001940700038685225</v>
       </c>
       <c r="C71">
-        <v>0.001484716132235817</v>
+        <v>0.001787543286216311</v>
       </c>
       <c r="D71">
-        <v>0.001739274194629147</v>
+        <v>0.00172832460032332</v>
       </c>
       <c r="E71">
-        <v>0.002126938071628748</v>
+        <v>0.002150592332892787</v>
       </c>
       <c r="F71">
-        <v>0.001361557761437992</v>
+        <v>0.00140951913810538</v>
       </c>
       <c r="G71">
-        <v>0.001091536450706664</v>
+        <v>0.001210204727827145</v>
       </c>
       <c r="H71">
-        <v>0.001083314136039813</v>
-      </c>
-      <c r="I71">
-        <v>0.001270608087268669</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.001203372337532476</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.001312584848623951</v>
+        <v>0.001536828548566114</v>
       </c>
       <c r="C72">
-        <v>0.0006353781738590853</v>
+        <v>0.0007350512455546518</v>
       </c>
       <c r="D72">
-        <v>0.001347633982773179</v>
+        <v>0.001359278176299988</v>
       </c>
       <c r="E72">
-        <v>0.001639388096749433</v>
+        <v>0.001676504556570667</v>
       </c>
       <c r="F72">
-        <v>0.0009694073198594311</v>
+        <v>0.001197860408074528</v>
       </c>
       <c r="G72">
-        <v>0.0006896670700345804</v>
+        <v>0.0008024063058784754</v>
       </c>
       <c r="H72">
-        <v>0.000791919976461746</v>
-      </c>
-      <c r="I72">
-        <v>0.0008099330443803161</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.0008447615605726121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.004048978075103809</v>
+        <v>0.004618577386765609</v>
       </c>
       <c r="C73">
-        <v>0.002813925018184812</v>
+        <v>0.003252606871178797</v>
       </c>
       <c r="D73">
-        <v>0.004654982143596214</v>
+        <v>0.004985041628203923</v>
       </c>
       <c r="E73">
-        <v>0.004488752245369833</v>
+        <v>0.004760568785965603</v>
       </c>
       <c r="F73">
-        <v>0.004606505594602703</v>
+        <v>0.005000587705369203</v>
       </c>
       <c r="G73">
-        <v>0.003312690507452526</v>
+        <v>0.003867502247353493</v>
       </c>
       <c r="H73">
-        <v>0.003043431106903849</v>
-      </c>
-      <c r="I73">
-        <v>0.00271978549430795</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.003578528429636079</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.007090272806628037</v>
+        <v>0.007401976258128755</v>
       </c>
       <c r="C74">
-        <v>0.00300231523528285</v>
+        <v>0.003112737794064738</v>
       </c>
       <c r="D74">
-        <v>0.004292404418548852</v>
+        <v>0.004984082242215637</v>
       </c>
       <c r="E74">
-        <v>0.003851265431115674</v>
+        <v>0.004360757202048228</v>
       </c>
       <c r="F74">
-        <v>0.003401567890962005</v>
+        <v>0.004028542181322887</v>
       </c>
       <c r="G74">
-        <v>0.002412006061308962</v>
+        <v>0.002348930484295576</v>
       </c>
       <c r="H74">
-        <v>0.00248348174667763</v>
-      </c>
-      <c r="I74">
-        <v>0.003403561597934251</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.00243819977062659</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.0009375572686993646</v>
+        <v>0.0008077269367231452</v>
       </c>
       <c r="C75">
-        <v>0.0007620937823374817</v>
+        <v>0.0006375108540713016</v>
       </c>
       <c r="D75">
-        <v>0.0007148321998977529</v>
+        <v>0.0006641931094827747</v>
       </c>
       <c r="E75">
-        <v>0.0008122668789991283</v>
+        <v>0.0008149929556167193</v>
       </c>
       <c r="F75">
-        <v>0.0009702615798936882</v>
+        <v>0.000832082856925999</v>
       </c>
       <c r="G75">
-        <v>0.000897231499599602</v>
+        <v>0.001003379923124149</v>
       </c>
       <c r="H75">
-        <v>0.0006246184230047523</v>
-      </c>
-      <c r="I75">
-        <v>0.001482148959808363</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.0004926040323262347</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.001589422042689434</v>
+        <v>0.001908418001205499</v>
       </c>
       <c r="C76">
-        <v>0.001075780319146007</v>
+        <v>0.001119866466374324</v>
       </c>
       <c r="D76">
-        <v>0.001781738342325068</v>
+        <v>0.001863136078008121</v>
       </c>
       <c r="E76">
-        <v>0.002251859874559911</v>
+        <v>0.002330058860919114</v>
       </c>
       <c r="F76">
-        <v>0.001027387063161558</v>
+        <v>0.001166741562160804</v>
       </c>
       <c r="G76">
-        <v>0.001256525177572178</v>
+        <v>0.001557777056823173</v>
       </c>
       <c r="H76">
-        <v>0.001526940209754798</v>
-      </c>
-      <c r="I76">
-        <v>0.0009979170751490774</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.001846227819439171</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.001124314509109124</v>
+        <v>0.001236073691107116</v>
       </c>
       <c r="C77">
-        <v>0.001034650857625894</v>
+        <v>0.001163893305361074</v>
       </c>
       <c r="D77">
-        <v>0.0008551241932814208</v>
+        <v>0.0009033771911244495</v>
       </c>
       <c r="E77">
-        <v>0.001025345264727905</v>
+        <v>0.001058279071289814</v>
       </c>
       <c r="F77">
-        <v>0.0007959581326779177</v>
+        <v>0.0008184590666947641</v>
       </c>
       <c r="G77">
-        <v>0.0008293498901862033</v>
+        <v>0.000936345624292175</v>
       </c>
       <c r="H77">
-        <v>0.0006570252479991087</v>
-      </c>
-      <c r="I77">
-        <v>0.0007768296817364614</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.0007579417969554015</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.001662201716511318</v>
+        <v>0.001937572909364987</v>
       </c>
       <c r="C78">
-        <v>0.0009180559694540517</v>
+        <v>0.00102514502107308</v>
       </c>
       <c r="D78">
-        <v>0.001746484541297951</v>
+        <v>0.001771480604853893</v>
       </c>
       <c r="E78">
-        <v>0.001058069266970475</v>
+        <v>0.001104690829156341</v>
       </c>
       <c r="F78">
-        <v>0.0008958297919849335</v>
+        <v>0.0009876998889595124</v>
       </c>
       <c r="G78">
-        <v>0.0008361974693770583</v>
+        <v>0.0009610841909175713</v>
       </c>
       <c r="H78">
-        <v>0.001617520325867722</v>
-      </c>
-      <c r="I78">
-        <v>0.0009281224952443001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.001890151455894388</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.002567844582645788</v>
+        <v>0.002820797875271203</v>
       </c>
       <c r="C79">
-        <v>0.002060350013958091</v>
+        <v>0.002354600958735602</v>
       </c>
       <c r="D79">
-        <v>0.002925583258360634</v>
+        <v>0.003152379949652909</v>
       </c>
       <c r="E79">
-        <v>0.002637574424927845</v>
+        <v>0.0028459681375807</v>
       </c>
       <c r="F79">
-        <v>0.003402973070641168</v>
+        <v>0.003655228630892654</v>
       </c>
       <c r="G79">
-        <v>0.002513221681763832</v>
+        <v>0.002765053886452156</v>
       </c>
       <c r="H79">
-        <v>0.002030577498467307</v>
-      </c>
-      <c r="I79">
-        <v>0.002043644902782649</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.002359184153030514</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.002617761476361954</v>
+        <v>0.003245376225962314</v>
       </c>
       <c r="C80">
-        <v>0.002592108108734776</v>
+        <v>0.003213572341558306</v>
       </c>
       <c r="D80">
-        <v>0.004007836655719389</v>
+        <v>0.003954919387527856</v>
       </c>
       <c r="E80">
-        <v>0.004231668286340917</v>
+        <v>0.004216745264063592</v>
       </c>
       <c r="F80">
-        <v>0.003383753191010076</v>
+        <v>0.003375519100620549</v>
       </c>
       <c r="G80">
-        <v>0.002437854383120761</v>
+        <v>0.002935139651171442</v>
       </c>
       <c r="H80">
-        <v>0.002364873690534393</v>
-      </c>
-      <c r="I80">
-        <v>0.002484070009494335</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.002802251451903561</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.001714866615808141</v>
+        <v>0.001972441514474487</v>
       </c>
       <c r="C81">
-        <v>0.0009371871114252777</v>
+        <v>0.001161876172029595</v>
       </c>
       <c r="D81">
-        <v>0.001256119385885808</v>
+        <v>0.001343046150245834</v>
       </c>
       <c r="E81">
-        <v>0.001484756002382734</v>
+        <v>0.001558193123422073</v>
       </c>
       <c r="F81">
-        <v>0.002346257473144943</v>
+        <v>0.002438799846911687</v>
       </c>
       <c r="G81">
-        <v>0.0009551355700540873</v>
+        <v>0.001184127858894129</v>
       </c>
       <c r="H81">
-        <v>0.001040486971166949</v>
-      </c>
-      <c r="I81">
-        <v>0.0009215276679796782</v>
+        <v>0.00126782890367862</v>
       </c>
     </row>
   </sheetData>
